--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -70,66 +70,66 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -142,18 +142,15 @@
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -166,10 +163,13 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -541,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +673,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6986301369863014</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3682170542635659</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +873,13 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.84375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2962962962962963</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2142857142857143</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8085106382978723</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1260053619302949</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7833333333333333</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1153,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7169811320754716</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1179,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.69375</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1231,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6266318537859008</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1257,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1283,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.58</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1309,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5777777777777777</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5617977528089888</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1361,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5588235294117647</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L24">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M24">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1387,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5389830508474577</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L25">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1439,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4743589743589743</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1465,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4383561643835616</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1491,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4307692307692308</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1517,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.40625</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1543,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.1124401913875598</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1569,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1081730769230769</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>371</v>
+        <v>831</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1595,25 +1595,25 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.06159014557670773</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1621,25 +1621,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.05660377358490566</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>850</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1647,25 +1647,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.0313376987839102</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="L35">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2071</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1673,25 +1673,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.02883506343713956</v>
+        <v>0.03559718969555035</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>842</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1699,25 +1699,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.01418897129958078</v>
+        <v>0.01677960632462085</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3057</v>
+        <v>3047</v>
       </c>
     </row>
   </sheetData>
